--- a/practica2/Sensor de temperatura.xlsx
+++ b/practica2/Sensor de temperatura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Escritorio\Intrumentacion-electronica\practica2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2138EFCD-A748-4112-8F96-DF0A903CE5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DDB059-FA02-47DF-ACF8-CB55CD4C8C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t xml:space="preserve">Condiciones ambientales </t>
   </si>
@@ -60,9 +60,6 @@
     <t>Prueba de Linealidad     (Bajada)</t>
   </si>
   <si>
-    <t>IBC (°C)</t>
-  </si>
-  <si>
     <t>Patrón (°C)</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
   </si>
   <si>
     <t>Resultados de la medición en °C</t>
-  </si>
-  <si>
-    <t>IBC</t>
   </si>
   <si>
     <t xml:space="preserve">Promedio subida </t>
@@ -108,28 +102,16 @@
     <t>Fuente de incetidumbre</t>
   </si>
   <si>
-    <t>Incertidumbre tipica (PSI)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Distribucion de probabilidad </t>
   </si>
   <si>
-    <t>Incertidumbre estandarizada (PSI)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coeficientes de sensibilidad </t>
-  </si>
-  <si>
-    <t>Incertidumbre Combinada (PSI)</t>
   </si>
   <si>
     <t>V_eff</t>
   </si>
   <si>
     <t xml:space="preserve">Factor de cobertura </t>
-  </si>
-  <si>
-    <t>U (PSI)</t>
   </si>
   <si>
     <t>Repetibilidad</t>
@@ -153,9 +135,6 @@
     <t>Resolucion patrón</t>
   </si>
   <si>
-    <t>Incertidumbre - IBC - 100 °C</t>
-  </si>
-  <si>
     <t>Prueba de Linealidad (subida)</t>
   </si>
   <si>
@@ -163,6 +142,21 @@
   </si>
   <si>
     <t>Termistor</t>
+  </si>
+  <si>
+    <t>Incertidumbre tipica (°C)</t>
+  </si>
+  <si>
+    <t>Incertidumbre estandarizada (°C)</t>
+  </si>
+  <si>
+    <t>Incertidumbre Combinada (°C)</t>
+  </si>
+  <si>
+    <t>U (°C)</t>
+  </si>
+  <si>
+    <t>Termistor (°C)</t>
   </si>
 </sst>
 </file>
@@ -277,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -372,19 +366,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -402,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -473,11 +454,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -490,34 +492,12 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1941,8 +1921,8 @@
   </sheetPr>
   <dimension ref="A1:R137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1974,16 +1954,16 @@
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="28"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -2022,20 +2002,20 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="I6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="28"/>
-      <c r="L6" s="29" t="s">
+      <c r="I6" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="32"/>
+      <c r="L6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="28"/>
-      <c r="O6" s="29" t="s">
+      <c r="M6" s="32"/>
+      <c r="O6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="28"/>
-    </row>
-    <row r="7" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -2043,22 +2023,22 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="I7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="L7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="42" t="s">
-        <v>9</v>
-      </c>
       <c r="O7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -2071,18 +2051,20 @@
       <c r="I8" s="10">
         <v>29.3</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="28">
         <v>30.2</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="26">
         <f>54.3</f>
         <v>54.3</v>
       </c>
-      <c r="M8" s="44">
+      <c r="M8" s="29">
         <v>56.3</v>
       </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="43">
+      <c r="O8" s="10">
+        <v>29.4</v>
+      </c>
+      <c r="P8" s="28">
         <v>30</v>
       </c>
     </row>
@@ -2096,18 +2078,20 @@
       <c r="I9" s="10">
         <v>30.9</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="28">
         <v>33.1</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="26">
         <f>53.3</f>
         <v>53.3</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="28">
         <v>53.4</v>
       </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="43">
+      <c r="O9" s="10">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="P9" s="28">
         <v>33.1</v>
       </c>
     </row>
@@ -2121,19 +2105,21 @@
       <c r="I10" s="10">
         <v>34.299999999999997</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="28">
         <v>37.5</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="26">
         <f>50.8</f>
         <v>50.8</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="28">
         <v>50.1</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="43">
-        <v>37.299999999999997</v>
+      <c r="O10" s="10">
+        <v>36.5</v>
+      </c>
+      <c r="P10" s="28">
+        <v>36.700000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -2146,19 +2132,21 @@
       <c r="I11" s="10">
         <v>37.380000000000003</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="28">
         <v>40.1</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="26">
         <f>48.9</f>
         <v>48.9</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="28">
         <v>47</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="43">
-        <v>40.1</v>
+      <c r="O11" s="10">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="P11" s="28">
+        <v>39.5</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -2171,19 +2159,21 @@
       <c r="I12" s="10">
         <v>39.799999999999997</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="28">
         <v>43.4</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="26">
         <f>46</f>
         <v>46</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="28">
         <v>43</v>
       </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="43">
-        <v>43.1</v>
+      <c r="O12" s="10">
+        <v>42.5</v>
+      </c>
+      <c r="P12" s="28">
+        <v>42.6</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -2196,19 +2186,21 @@
       <c r="I13" s="10">
         <v>43.9</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="28">
         <v>47.3</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="26">
         <f>43</f>
         <v>43</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="28">
         <v>40.1</v>
       </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="43">
-        <v>47.4</v>
+      <c r="O13" s="10">
+        <v>46.2</v>
+      </c>
+      <c r="P13" s="28">
+        <v>46.3</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -2221,19 +2213,21 @@
       <c r="I14" s="10">
         <v>47.6</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="28">
         <v>49.9</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="26">
         <f>40.4</f>
         <v>40.4</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="28">
         <v>37</v>
       </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="43">
-        <v>50.2</v>
+      <c r="O14" s="10">
+        <v>49</v>
+      </c>
+      <c r="P14" s="28">
+        <v>49.1</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -2246,19 +2240,21 @@
       <c r="I15" s="10">
         <v>49.6</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J15" s="28">
         <v>52</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="26">
         <f>35</f>
         <v>35</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="28">
         <v>33.1</v>
       </c>
-      <c r="O15" s="10"/>
-      <c r="P15" s="43">
-        <v>53.3</v>
+      <c r="O15" s="10">
+        <v>51.7</v>
+      </c>
+      <c r="P15" s="28">
+        <v>51.8</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -2271,19 +2267,21 @@
       <c r="I16" s="7">
         <v>52.4</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="29">
         <v>56.3</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="26">
         <f>32.2</f>
         <v>32.200000000000003</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="28">
         <v>30.4</v>
       </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="44">
+      <c r="O16" s="7">
         <v>56.6</v>
+      </c>
+      <c r="P16" s="29">
+        <v>56.9</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -2310,70 +2308,70 @@
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="I21" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="I21" s="37" t="s">
+      <c r="J21" s="32"/>
+      <c r="M21" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="28"/>
-      <c r="M21" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
       <c r="Q21" s="23"/>
       <c r="R21" s="24"/>
     </row>
     <row r="22" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="I22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="M22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="P22" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="R22" s="24"/>
     </row>
     <row r="23" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="10">
-        <v>0</v>
+        <v>29.3</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" ref="C23:C31" si="0">(J8+P8)/2</f>
@@ -2385,25 +2383,25 @@
       </c>
       <c r="E23" s="10">
         <f t="shared" ref="E23:E31" si="1">C23-B23</f>
-        <v>30.1</v>
+        <v>0.80000000000000071</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" ref="F23:F31" si="2">D23-B23</f>
-        <v>30.4</v>
+        <v>1.0999999999999979</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" ref="G23:G31" si="3">ABS(C23-D23)</f>
         <v>0.29999999999999716</v>
       </c>
       <c r="I23" s="10">
-        <v>0</v>
+        <v>29.3</v>
       </c>
       <c r="J23" s="14">
         <f t="shared" ref="J23:J31" si="4">STDEV(J8,D23,P8)</f>
         <v>0.19999999999999929</v>
       </c>
       <c r="M23" s="10">
-        <v>0</v>
+        <v>29.3</v>
       </c>
       <c r="N23" s="7">
         <f t="shared" ref="N23:N31" si="5">AVERAGE(P8,J8)</f>
@@ -2420,7 +2418,7 @@
     </row>
     <row r="24" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="10">
-        <v>100</v>
+        <v>30.9</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
@@ -2432,25 +2430,25 @@
       </c>
       <c r="E24" s="10">
         <f t="shared" si="1"/>
-        <v>-66.900000000000006</v>
+        <v>2.2000000000000028</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="2"/>
-        <v>-66.900000000000006</v>
+        <v>2.2000000000000028</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I24" s="10">
-        <v>100</v>
+        <v>30.9</v>
       </c>
       <c r="J24" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M24" s="10">
-        <v>100</v>
+        <v>30.9</v>
       </c>
       <c r="N24" s="7">
         <f t="shared" si="5"/>
@@ -2467,11 +2465,11 @@
     </row>
     <row r="25" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="10">
-        <v>200</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
-        <v>37.4</v>
+        <v>37.1</v>
       </c>
       <c r="D25" s="7">
         <f>M14</f>
@@ -2479,29 +2477,29 @@
       </c>
       <c r="E25" s="10">
         <f t="shared" si="1"/>
-        <v>-162.6</v>
+        <v>2.8000000000000043</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="2"/>
-        <v>-163</v>
+        <v>2.7000000000000028</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="3"/>
-        <v>0.39999999999999858</v>
+        <v>0.10000000000000142</v>
       </c>
       <c r="I25" s="10">
-        <v>200</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="J25" s="14">
         <f t="shared" si="4"/>
-        <v>0.25166114784235816</v>
+        <v>0.40414518843273672</v>
       </c>
       <c r="M25" s="10">
-        <v>200</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="N25" s="7">
         <f t="shared" si="5"/>
-        <v>37.4</v>
+        <v>37.1</v>
       </c>
       <c r="O25" s="10">
         <v>155</v>
@@ -2514,11 +2512,11 @@
     </row>
     <row r="26" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="10">
-        <v>300</v>
+        <v>37.380000000000003</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>40.1</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="D26" s="7">
         <f>M13</f>
@@ -2526,29 +2524,29 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v>-259.89999999999998</v>
+        <v>2.4199999999999946</v>
       </c>
       <c r="F26" s="7">
         <f t="shared" si="2"/>
-        <v>-259.89999999999998</v>
+        <v>2.7199999999999989</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.30000000000000426</v>
       </c>
       <c r="I26" s="10">
-        <v>300</v>
+        <v>37.380000000000003</v>
       </c>
       <c r="J26" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.34641016151377629</v>
       </c>
       <c r="M26" s="10">
-        <v>300</v>
+        <v>37.380000000000003</v>
       </c>
       <c r="N26" s="7">
         <f t="shared" si="5"/>
-        <v>40.1</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="O26" s="10">
         <v>250</v>
@@ -2561,11 +2559,11 @@
     </row>
     <row r="27" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="10">
-        <v>400</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="0"/>
-        <v>43.25</v>
+        <v>43</v>
       </c>
       <c r="D27" s="10">
         <f>M12</f>
@@ -2573,29 +2571,29 @@
       </c>
       <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v>-356.75</v>
+        <v>3.2000000000000028</v>
       </c>
       <c r="F27" s="7">
         <f t="shared" si="2"/>
-        <v>-357</v>
+        <v>3.2000000000000028</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I27" s="10">
-        <v>400</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="J27" s="14">
         <f t="shared" si="4"/>
-        <v>0.20816659994661224</v>
+        <v>0.39999999999999858</v>
       </c>
       <c r="M27" s="10">
-        <v>400</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="N27" s="7">
         <f t="shared" si="5"/>
-        <v>43.25</v>
+        <v>43</v>
       </c>
       <c r="O27" s="10">
         <v>345</v>
@@ -2608,11 +2606,11 @@
     </row>
     <row r="28" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="10">
-        <v>500</v>
+        <v>43.9</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="0"/>
-        <v>47.349999999999994</v>
+        <v>46.8</v>
       </c>
       <c r="D28" s="10">
         <f>M11</f>
@@ -2620,29 +2618,29 @@
       </c>
       <c r="E28" s="10">
         <f t="shared" si="1"/>
-        <v>-452.65</v>
+        <v>2.8999999999999986</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="2"/>
-        <v>-453</v>
+        <v>3.1000000000000014</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="3"/>
-        <v>0.34999999999999432</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="I28" s="10">
-        <v>500</v>
+        <v>43.9</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" si="4"/>
-        <v>0.20816659994661224</v>
+        <v>0.51316014394468878</v>
       </c>
       <c r="M28" s="10">
-        <v>500</v>
+        <v>43.9</v>
       </c>
       <c r="N28" s="7">
         <f t="shared" si="5"/>
-        <v>47.349999999999994</v>
+        <v>46.8</v>
       </c>
       <c r="O28" s="10">
         <v>440</v>
@@ -2655,11 +2653,11 @@
     </row>
     <row r="29" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="10">
-        <v>600</v>
+        <v>47.6</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>50.05</v>
+        <v>49.5</v>
       </c>
       <c r="D29" s="10">
         <f>M10</f>
@@ -2667,29 +2665,29 @@
       </c>
       <c r="E29" s="10">
         <f t="shared" si="1"/>
-        <v>-549.95000000000005</v>
+        <v>1.8999999999999986</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="2"/>
-        <v>-549.9</v>
+        <v>2.5</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="3"/>
-        <v>5.0000000000004263E-2</v>
+        <v>0.60000000000000142</v>
       </c>
       <c r="I29" s="10">
-        <v>600</v>
+        <v>47.6</v>
       </c>
       <c r="J29" s="14">
         <f t="shared" si="4"/>
-        <v>0.15275252316519683</v>
+        <v>0.52915026221291761</v>
       </c>
       <c r="M29" s="10">
-        <v>600</v>
+        <v>47.6</v>
       </c>
       <c r="N29" s="7">
         <f t="shared" si="5"/>
-        <v>50.05</v>
+        <v>49.5</v>
       </c>
       <c r="O29" s="10">
         <v>540</v>
@@ -2702,11 +2700,11 @@
     </row>
     <row r="30" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="10">
-        <v>700</v>
+        <v>49.6</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="0"/>
-        <v>52.65</v>
+        <v>51.9</v>
       </c>
       <c r="D30" s="10">
         <f>M9</f>
@@ -2714,29 +2712,29 @@
       </c>
       <c r="E30" s="10">
         <f t="shared" si="1"/>
-        <v>-647.35</v>
+        <v>2.2999999999999972</v>
       </c>
       <c r="F30" s="7">
         <f t="shared" si="2"/>
-        <v>-646.6</v>
+        <v>3.7999999999999972</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="I30" s="10">
-        <v>700</v>
+        <v>49.6</v>
       </c>
       <c r="J30" s="14">
         <f t="shared" si="4"/>
-        <v>0.7810249675906642</v>
+        <v>0.87177978870813488</v>
       </c>
       <c r="M30" s="10">
-        <v>700</v>
+        <v>49.6</v>
       </c>
       <c r="N30" s="7">
         <f t="shared" si="5"/>
-        <v>52.65</v>
+        <v>51.9</v>
       </c>
       <c r="O30" s="10">
         <v>640</v>
@@ -2749,11 +2747,11 @@
     </row>
     <row r="31" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" s="7">
-        <v>800</v>
+        <v>52.4</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="0"/>
-        <v>56.45</v>
+        <v>56.599999999999994</v>
       </c>
       <c r="D31" s="10">
         <f>M8</f>
@@ -2761,29 +2759,29 @@
       </c>
       <c r="E31" s="10">
         <f t="shared" si="1"/>
-        <v>-743.55</v>
+        <v>4.1999999999999957</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="2"/>
-        <v>-743.7</v>
+        <v>3.8999999999999986</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="3"/>
-        <v>0.15000000000000568</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="I31" s="7">
-        <v>800</v>
+        <v>52.4</v>
       </c>
       <c r="J31" s="14">
         <f t="shared" si="4"/>
-        <v>0.1732050807568902</v>
+        <v>0.34641016151377629</v>
       </c>
       <c r="M31" s="7">
-        <v>800</v>
+        <v>52.4</v>
       </c>
       <c r="N31" s="7">
         <f t="shared" si="5"/>
-        <v>56.45</v>
+        <v>56.599999999999994</v>
       </c>
       <c r="O31" s="10">
         <v>745</v>
@@ -2794,65 +2792,65 @@
       </c>
       <c r="R31" s="8"/>
     </row>
-    <row r="33" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="33" t="s">
+    <row r="33" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="32"/>
+    </row>
+    <row r="34" spans="2:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="28"/>
-    </row>
-    <row r="34" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B34" s="11" t="s">
+      <c r="D34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="F34" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="H34" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="J34" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="K34" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="16">
         <v>2</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D35" s="17">
         <f>J23</f>
         <v>0.19999999999999929</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F35" s="18">
         <f>D35/SQRT(3)</f>
@@ -2861,33 +2859,33 @@
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="34">
+      <c r="H35" s="33">
         <f>SQRT(SUM((F35*G35)^2, (F38*G38)^2, (F39*G39)^2,(F37*G37)^2, (F36*G36)^2))</f>
         <v>11.903255857117415</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I35" s="36">
         <f>(H35^4) / ((F35^4)/B35 + (F38^4)/B38 + (F39^4)/B39 + (F37^4)/B37+ (F36^4)/B36)</f>
         <v>112.48436448009568</v>
       </c>
-      <c r="J35" s="34">
+      <c r="J35" s="33">
         <f>_xlfn.T.INV.2T(0.05,I35)</f>
         <v>1.9813718148763031</v>
       </c>
-      <c r="K35" s="34">
+      <c r="K35" s="33">
         <f>H35*J35</f>
         <v>23.584775660553717</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="16">
         <v>100</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F36" s="18">
         <f>D36/2</f>
@@ -2896,24 +2894,24 @@
       <c r="G36" s="16">
         <v>1</v>
       </c>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-    </row>
-    <row r="37" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+    </row>
+    <row r="37" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="16">
         <v>2</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D37" s="16">
         <f>G23</f>
         <v>0.29999999999999716</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F37" s="18">
         <f>D37/SQRT(12)</f>
@@ -2922,23 +2920,23 @@
       <c r="G37" s="16">
         <v>1</v>
       </c>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-    </row>
-    <row r="38" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+    </row>
+    <row r="38" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="16">
         <v>100</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D38" s="16">
         <v>20</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F38" s="18">
         <f t="shared" ref="F38:F39" si="6">D38/SQRT(3)</f>
@@ -2947,23 +2945,23 @@
       <c r="G38" s="16">
         <v>1</v>
       </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-    </row>
-    <row r="39" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+    </row>
+    <row r="39" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="16">
         <v>100</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D39" s="16">
         <v>5</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F39" s="18">
         <f t="shared" si="6"/>
@@ -2972,201 +2970,102 @@
       <c r="G39" s="16">
         <v>1</v>
       </c>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-    </row>
-    <row r="40" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+    </row>
+    <row r="40" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H40" s="20"/>
       <c r="I40" s="21"/>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B41" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="28"/>
-    </row>
-    <row r="42" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B42" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B43" s="16">
-        <v>2</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="17">
-        <f>J24</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" s="18">
-        <f>D43/SQRT(3)</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="16">
-        <v>1</v>
-      </c>
-      <c r="H43" s="34">
-        <f>SQRT(SUM((F43*G43)^2, (F46*G46)^2, (F47*G47)^2,(F45*G45)^2, (F44*G44)^2))</f>
-        <v>11.902380714238085</v>
-      </c>
-      <c r="I43" s="38">
-        <f>(H43^4) / ((F43^4)/B43 + (F46^4)/B46 + (F47^4)/B47 + (F45^4)/B45+ (F44^4)/B44)</f>
-        <v>112.45136186770424</v>
-      </c>
-      <c r="J43" s="34">
-        <f>_xlfn.T.INV.2T(0.05,I43)</f>
-        <v>1.9813718148763031</v>
-      </c>
-      <c r="K43" s="34">
-        <f>H43*J43</f>
-        <v>23.583041677118622</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B44" s="16">
-        <v>100</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="18">
-        <f>D44/2</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="16">
-        <v>1</v>
-      </c>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-    </row>
-    <row r="45" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B45" s="16">
-        <v>2</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="16">
-        <f>G24</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F45" s="18">
-        <f>D45/SQRT(12)</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="16">
-        <v>1</v>
-      </c>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-    </row>
-    <row r="46" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B46" s="16">
-        <v>100</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="16">
-        <v>20</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F46" s="18">
-        <f t="shared" ref="F46:F47" si="7">D46/SQRT(3)</f>
-        <v>11.547005383792516</v>
-      </c>
-      <c r="G46" s="16">
-        <v>1</v>
-      </c>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-    </row>
-    <row r="47" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B47" s="16">
-        <v>100</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="16">
-        <v>5</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F47" s="18">
-        <f t="shared" si="7"/>
-        <v>2.8867513459481291</v>
-      </c>
-      <c r="G47" s="16">
-        <v>1</v>
-      </c>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-    </row>
-    <row r="48" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+    </row>
+    <row r="42" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+    </row>
+    <row r="43" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+    </row>
+    <row r="44" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+    </row>
+    <row r="45" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+    </row>
+    <row r="46" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+    </row>
+    <row r="47" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+    </row>
+    <row r="48" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
@@ -4226,24 +4125,19 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M8:M16">
     <sortCondition descending="1" ref="M8:M16"/>
   </sortState>
-  <mergeCells count="17">
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="J43:J47"/>
-    <mergeCell ref="K43:K47"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="I35:I39"/>
-    <mergeCell ref="J35:J39"/>
-    <mergeCell ref="K35:K39"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="I43:I47"/>
+  <mergeCells count="12">
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="I35:I39"/>
+    <mergeCell ref="J35:J39"/>
+    <mergeCell ref="K35:K39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4263,14 +4157,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="40"/>
+      <c r="A1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>1</v>

--- a/practica2/Sensor de temperatura.xlsx
+++ b/practica2/Sensor de temperatura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Escritorio\Intrumentacion-electronica\practica2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DDB059-FA02-47DF-ACF8-CB55CD4C8C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE3DE9A-6E5F-4E6E-B890-DE6AFDA7DCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrología" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t xml:space="preserve">Condiciones ambientales </t>
   </si>
@@ -158,14 +158,18 @@
   <si>
     <t>Termistor (°C)</t>
   </si>
+  <si>
+    <t>Sensibilidad teórica del termistor linealizado [mV]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d\.m"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -215,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +272,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEA9999"/>
         <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -383,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -462,24 +472,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -492,11 +489,30 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,7 +1137,509 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Regresión!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Voltaje (mV)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.2147856517935263E-4"/>
+                  <c:y val="-8.4508238553514151E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Regresión!$L$3:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Regresión!$M$3:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1831</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F01-454B-8E81-EC7E5B3CF4E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1363788400"/>
+        <c:axId val="1363821520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1363788400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363821520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1363821520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363788400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1677,6 +2195,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1710,6 +2744,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E5EDE0-A1F7-0469-2399-E68EAE9669A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1921,8 +2991,8 @@
   </sheetPr>
   <dimension ref="A1:R137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1943,8 +3013,10 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
+        <v>41</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1954,7 +3026,7 @@
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="30" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="31"/>
@@ -1967,7 +3039,10 @@
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="A3" s="45">
+        <f>(1.4868/3997)*(((3997/(2*298.15))^2)-1)*1000</f>
+        <v>16.341123720295442</v>
+      </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
@@ -2002,15 +3077,15 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="33" t="s">
         <v>33</v>
       </c>
       <c r="J6" s="32"/>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="33" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="32"/>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="33" t="s">
         <v>6</v>
       </c>
       <c r="P6" s="32"/>
@@ -2308,7 +3383,7 @@
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="31"/>
@@ -2316,16 +3391,16 @@
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="32"/>
-      <c r="I21" s="35" t="s">
+      <c r="I21" s="38" t="s">
         <v>10</v>
       </c>
       <c r="J21" s="32"/>
-      <c r="M21" s="40" t="s">
+      <c r="M21" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
       <c r="Q21" s="23"/>
       <c r="R21" s="24"/>
     </row>
@@ -2793,7 +3868,7 @@
       <c r="R31" s="8"/>
     </row>
     <row r="33" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="37" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="31"/>
@@ -2859,19 +3934,19 @@
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="33">
+      <c r="H35" s="39">
         <f>SQRT(SUM((F35*G35)^2, (F38*G38)^2, (F39*G39)^2,(F37*G37)^2, (F36*G36)^2))</f>
         <v>11.903255857117415</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="41">
         <f>(H35^4) / ((F35^4)/B35 + (F38^4)/B38 + (F39^4)/B39 + (F37^4)/B37+ (F36^4)/B36)</f>
         <v>112.48436448009568</v>
       </c>
-      <c r="J35" s="33">
+      <c r="J35" s="39">
         <f>_xlfn.T.INV.2T(0.05,I35)</f>
         <v>1.9813718148763031</v>
       </c>
-      <c r="K35" s="33">
+      <c r="K35" s="39">
         <f>H35*J35</f>
         <v>23.584775660553717</v>
       </c>
@@ -2894,10 +3969,10 @@
       <c r="G36" s="16">
         <v>1</v>
       </c>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
     </row>
     <row r="37" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="16">
@@ -2920,10 +3995,10 @@
       <c r="G37" s="16">
         <v>1</v>
       </c>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
     </row>
     <row r="38" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="16">
@@ -2945,10 +4020,10 @@
       <c r="G38" s="16">
         <v>1</v>
       </c>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
     </row>
     <row r="39" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="16">
@@ -2970,10 +4045,10 @@
       <c r="G39" s="16">
         <v>1</v>
       </c>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
     </row>
     <row r="40" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H40" s="20"/>
@@ -4126,18 +5201,18 @@
     <sortCondition descending="1" ref="M8:M16"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="I35:I39"/>
+    <mergeCell ref="J35:J39"/>
+    <mergeCell ref="K35:K39"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="I35:I39"/>
-    <mergeCell ref="J35:J39"/>
-    <mergeCell ref="K35:K39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4145,10 +5220,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2235D55E-22E7-4DD8-8400-13EB523B68F2}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4156,90 +5231,150 @@
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="43"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="L2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1516</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1586</v>
       </c>
       <c r="B4">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>33.1</v>
+      </c>
+      <c r="M4">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1690</v>
       </c>
       <c r="B5">
         <v>37.299999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="M5">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1758</v>
       </c>
       <c r="B6">
         <v>40.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>40.1</v>
+      </c>
+      <c r="M6">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1831</v>
       </c>
       <c r="B7">
         <v>43.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>43.1</v>
+      </c>
+      <c r="M7">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1978</v>
       </c>
       <c r="B8">
         <v>47.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>47.4</v>
+      </c>
+      <c r="M8">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2055</v>
       </c>
       <c r="B9">
         <v>50.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>50.2</v>
+      </c>
+      <c r="M9">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2117</v>
       </c>
       <c r="B10">
         <v>53.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>53.3</v>
+      </c>
+      <c r="M10">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2241</v>
       </c>
       <c r="B11" s="25">
         <v>56.6</v>
+      </c>
+      <c r="L11" s="25">
+        <v>56.6</v>
+      </c>
+      <c r="M11">
+        <v>2241</v>
       </c>
     </row>
   </sheetData>

--- a/practica2/Sensor de temperatura.xlsx
+++ b/practica2/Sensor de temperatura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Escritorio\Intrumentacion-electronica\practica2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE3DE9A-6E5F-4E6E-B890-DE6AFDA7DCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B22284D-3576-477D-929F-F0A68EA61648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,9 +169,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d\.m"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -212,6 +212,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -393,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -472,11 +480,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -489,31 +516,13 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2785,6 +2794,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>4616</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362EF707-745A-E509-0340-5FB5B40A26EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076325" y="3143251"/>
+          <a:ext cx="4505325" cy="2204890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3014,7 +3067,7 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="30" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3026,20 +3079,20 @@
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="34"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="45">
+      <c r="A3" s="31">
         <f>(1.4868/3997)*(((3997/(2*298.15))^2)-1)*1000</f>
         <v>16.341123720295442</v>
       </c>
@@ -3077,18 +3130,18 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="L6" s="33" t="s">
+      <c r="J6" s="34"/>
+      <c r="L6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="O6" s="33" t="s">
+      <c r="M6" s="34"/>
+      <c r="O6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="32"/>
+      <c r="P6" s="34"/>
     </row>
     <row r="7" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
@@ -3383,24 +3436,24 @@
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="I21" s="38" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="I21" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="32"/>
-      <c r="M21" s="35" t="s">
+      <c r="J21" s="34"/>
+      <c r="M21" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
       <c r="Q21" s="23"/>
       <c r="R21" s="24"/>
     </row>
@@ -3868,18 +3921,18 @@
       <c r="R31" s="8"/>
     </row>
     <row r="33" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="34"/>
     </row>
     <row r="34" spans="2:12" ht="51" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
@@ -3934,19 +3987,19 @@
       <c r="G35" s="16">
         <v>1</v>
       </c>
-      <c r="H35" s="39">
+      <c r="H35" s="36">
         <f>SQRT(SUM((F35*G35)^2, (F38*G38)^2, (F39*G39)^2,(F37*G37)^2, (F36*G36)^2))</f>
         <v>11.903255857117415</v>
       </c>
-      <c r="I35" s="41">
+      <c r="I35" s="38">
         <f>(H35^4) / ((F35^4)/B35 + (F38^4)/B38 + (F39^4)/B39 + (F37^4)/B37+ (F36^4)/B36)</f>
         <v>112.48436448009568</v>
       </c>
-      <c r="J35" s="39">
+      <c r="J35" s="36">
         <f>_xlfn.T.INV.2T(0.05,I35)</f>
         <v>1.9813718148763031</v>
       </c>
-      <c r="K35" s="39">
+      <c r="K35" s="36">
         <f>H35*J35</f>
         <v>23.584775660553717</v>
       </c>
@@ -3969,10 +4022,10 @@
       <c r="G36" s="16">
         <v>1</v>
       </c>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
     </row>
     <row r="37" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="16">
@@ -3995,10 +4048,10 @@
       <c r="G37" s="16">
         <v>1</v>
       </c>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
     </row>
     <row r="38" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="16">
@@ -4020,10 +4073,10 @@
       <c r="G38" s="16">
         <v>1</v>
       </c>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
     </row>
     <row r="39" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="16">
@@ -4045,10 +4098,10 @@
       <c r="G39" s="16">
         <v>1</v>
       </c>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
     </row>
     <row r="40" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H40" s="20"/>
@@ -5201,18 +5254,18 @@
     <sortCondition descending="1" ref="M8:M16"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="M21:P21"/>
     <mergeCell ref="B33:K33"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="H35:H39"/>
     <mergeCell ref="I35:I39"/>
     <mergeCell ref="J35:J39"/>
     <mergeCell ref="K35:K39"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="M21:P21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5220,10 +5273,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2235D55E-22E7-4DD8-8400-13EB523B68F2}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5232,10 +5285,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
@@ -5376,6 +5429,9 @@
       <c r="M11">
         <v>2241</v>
       </c>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I32" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
